--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\genmaterial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164159E6-E053-46ED-B1D2-8BF769873C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF81FE7-96A7-4B73-A222-7648C4053469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
   <si>
     <t>name</t>
   </si>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,9 +1008,6 @@
       <c r="C16" t="s">
         <v>56</v>
       </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
       <c r="G16">
         <v>3</v>
       </c>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF81FE7-96A7-4B73-A222-7648C4053469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC8EE5-C523-46F4-AF1A-5F89C1F3A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,10 +311,10 @@
     <t>X</t>
   </si>
   <si>
-    <t>has_active</t>
-  </si>
-  <si>
     <t>Prepaid Good</t>
+  </si>
+  <si>
+    <t>has_ability</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -980,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>53</v>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CC8EE5-C523-46F4-AF1A-5F89C1F3A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99151E34-1774-4045-BF7C-A92B6F232420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -315,6 +315,9 @@
   </si>
   <si>
     <t>has_ability</t>
+  </si>
+  <si>
+    <t>animalfolk_id</t>
   </si>
 </sst>
 </file>
@@ -632,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,9 +651,10 @@
     <col min="7" max="7" width="6.140625" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -678,8 +682,11 @@
       <c r="I1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -698,8 +705,11 @@
       <c r="I2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -718,8 +728,11 @@
       <c r="I3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -738,8 +751,11 @@
       <c r="I4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -758,8 +774,11 @@
       <c r="I5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -778,8 +797,11 @@
       <c r="I6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -798,8 +820,11 @@
       <c r="I7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -824,8 +849,11 @@
       <c r="I8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -844,8 +872,11 @@
       <c r="I9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -870,8 +901,11 @@
       <c r="I10" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -896,8 +930,11 @@
       <c r="I11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -922,8 +959,11 @@
       <c r="I12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -948,8 +988,11 @@
       <c r="I13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -974,8 +1017,11 @@
       <c r="I14" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -997,8 +1043,11 @@
       <c r="I15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1017,8 +1066,11 @@
       <c r="I16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1040,8 +1092,11 @@
       <c r="I17" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1063,8 +1118,11 @@
       <c r="I18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1083,8 +1141,11 @@
       <c r="I19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1109,8 +1170,11 @@
       <c r="I20" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1135,8 +1199,11 @@
       <c r="I21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1161,8 +1228,11 @@
       <c r="I22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1187,8 +1257,11 @@
       <c r="I23" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1213,8 +1286,11 @@
       <c r="I24" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1236,8 +1312,11 @@
       <c r="I25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1256,8 +1335,11 @@
       <c r="I26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1276,8 +1358,11 @@
       <c r="I27" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1296,8 +1381,11 @@
       <c r="I28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1322,8 +1410,11 @@
       <c r="I29" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1342,8 +1433,11 @@
       <c r="I30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1362,8 +1456,11 @@
       <c r="I31" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1385,8 +1482,11 @@
       <c r="I32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1411,8 +1511,11 @@
       <c r="I33" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1437,8 +1540,11 @@
       <c r="I34" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1463,8 +1569,11 @@
       <c r="I35" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1489,8 +1598,11 @@
       <c r="I36" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1515,8 +1627,11 @@
       <c r="I37" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1535,8 +1650,11 @@
       <c r="I38" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1555,8 +1673,11 @@
       <c r="I39" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1578,8 +1699,11 @@
       <c r="I40" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1604,8 +1728,11 @@
       <c r="I41" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1624,8 +1751,11 @@
       <c r="I42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1643,6 +1773,9 @@
       </c>
       <c r="I43" t="s">
         <v>83</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AA64A1-6BAD-4E21-8410-CE12247BCE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371E3D1-C9F6-44A2-BCFF-6F96D6ECCE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,15 +1058,6 @@
     <t>Ditch 1 card. Gain 1 COIN.</t>
   </si>
   <si>
-    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2 until you have a different results. Place 1 card from any player's [source] into their [destination].</t>
-  </si>
-  <si>
-    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2. Place a card from any player's [source] into a different player's [destination].</t>
-  </si>
-  <si>
-    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2. Shuffle 2 cards from any player's [source] into a different player's [destination]. Repeat with [destination] and [source] swapped without shuffling.</t>
-  </si>
-  <si>
     <t>When purchased, ditch 0-3 junk used in the purchase.</t>
   </si>
   <si>
@@ -1137,6 +1128,15 @@
   </si>
   <si>
     <t>Draw [DAY 3] [NIGHT 1] cards. Place [DAY 2] [NIGHT 1] cards on top of your deck.</t>
+  </si>
+  <si>
+    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2 until you have a different results. Place 1 card from any player's SOURCE into their DESTINATION.</t>
+  </si>
+  <si>
+    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2. Place a card from any player's SOURCE into a different player's DESTINATION.</t>
+  </si>
+  <si>
+    <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2. Shuffle 2 cards from any player's SOURCE into a different player's DESTINATION. Repeat with DESTINATION and SOURCE swapped without shuffling.</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1491,7 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C175" sqref="C175"/>
+      <selection activeCell="C151" sqref="A1:J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1938,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2076,7 +2076,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>54</v>
@@ -2532,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>54</v>
@@ -2954,7 +2954,7 @@
         <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>54</v>
@@ -3638,7 +3638,7 @@
         <v>120</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3946,7 +3946,7 @@
         <v>174</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -4000,7 +4000,7 @@
         <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>54</v>
@@ -4030,7 +4030,7 @@
         <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>54</v>
@@ -4060,7 +4060,7 @@
         <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>54</v>
@@ -4438,7 +4438,7 @@
         <v>191</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>54</v>
@@ -4852,7 +4852,7 @@
         <v>205</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4938,7 +4938,7 @@
         <v>208</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>54</v>
@@ -5110,7 +5110,7 @@
         <v>240</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>54</v>
@@ -5320,7 +5320,7 @@
         <v>247</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>54</v>
@@ -5588,7 +5588,7 @@
         <v>256</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>54</v>
@@ -5618,7 +5618,7 @@
         <v>257</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>54</v>
@@ -5708,7 +5708,7 @@
         <v>260</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>54</v>
@@ -5738,7 +5738,7 @@
         <v>261</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5796,7 +5796,7 @@
         <v>263</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>54</v>
@@ -5826,7 +5826,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>54</v>
@@ -5886,7 +5886,7 @@
         <v>266</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>54</v>
@@ -5916,7 +5916,7 @@
         <v>267</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>54</v>
@@ -5976,7 +5976,7 @@
         <v>269</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>54</v>
@@ -6036,7 +6036,7 @@
         <v>271</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>54</v>
@@ -6122,7 +6122,7 @@
         <v>274</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>54</v>
@@ -6152,7 +6152,7 @@
         <v>275</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>54</v>
@@ -6212,7 +6212,7 @@
         <v>277</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371E3D1-C9F6-44A2-BCFF-6F96D6ECCE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E863D-4558-4929-9E06-881BFE066F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1091,9 +1091,6 @@
     <t>Spend 1 to place 0-3 cards from your discard pile on top of your deck.</t>
   </si>
   <si>
-    <t>Spend x (1-8) to gain x/2 COIN (rounded up).</t>
-  </si>
-  <si>
     <t>Shuffle 0-2 cards from another player's discard pile into their deck.</t>
   </si>
   <si>
@@ -1127,9 +1124,6 @@
     <t>Ditch 1 random card from another player's hand.</t>
   </si>
   <si>
-    <t>Draw [DAY 3] [NIGHT 1] cards. Place [DAY 2] [NIGHT 1] cards on top of your deck.</t>
-  </si>
-  <si>
     <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2 until you have a different results. Place 1 card from any player's SOURCE into their DESTINATION.</t>
   </si>
   <si>
@@ -1137,6 +1131,12 @@
   </si>
   <si>
     <t>Roll DIE_PANGOLIN1 and DIE_PANGOLIN2. Shuffle 2 cards from any player's SOURCE into a different player's DESTINATION. Repeat with DESTINATION and SOURCE swapped without shuffling.</t>
+  </si>
+  <si>
+    <t>Draw [DAY 3] [NIGHT 1] cards. Place [DAY 2] [NIGHT 1] cards on top of your deck.</t>
+  </si>
+  <si>
+    <t>Spend x (1-8) to gain x/2 COIN (rounded up).</t>
   </si>
 </sst>
 </file>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C151" sqref="A1:J169"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C133" sqref="C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2532,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>54</v>
@@ -4438,7 +4438,7 @@
         <v>191</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>54</v>
@@ -5320,7 +5320,7 @@
         <v>247</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>54</v>
@@ -5588,7 +5588,7 @@
         <v>256</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>54</v>
@@ -5618,7 +5618,7 @@
         <v>257</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>54</v>
@@ -5708,7 +5708,7 @@
         <v>260</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>54</v>
@@ -5738,7 +5738,7 @@
         <v>261</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -5796,7 +5796,7 @@
         <v>263</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>54</v>
@@ -5826,7 +5826,7 @@
         <v>264</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>54</v>
@@ -5886,7 +5886,7 @@
         <v>266</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>54</v>
@@ -5916,7 +5916,7 @@
         <v>267</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>54</v>
@@ -5976,7 +5976,7 @@
         <v>269</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>54</v>
@@ -6036,7 +6036,7 @@
         <v>271</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>54</v>
@@ -6122,7 +6122,7 @@
         <v>274</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>54</v>
@@ -6152,7 +6152,7 @@
         <v>275</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>54</v>
@@ -6212,7 +6212,7 @@
         <v>277</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3E863D-4558-4929-9E06-881BFE066F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3942C4BE-DE7A-434A-9478-AD4E419E4D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="367">
   <si>
     <t>name</t>
   </si>
@@ -1490,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
   <dimension ref="A1:J169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,7 +2758,9 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G45" s="2">
         <v>2</v>
       </c>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3942C4BE-DE7A-434A-9478-AD4E419E4D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B31B90-A8C0-4560-AB9D-BC0A27D34999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="376">
   <si>
     <t>name</t>
   </si>
@@ -1137,6 +1137,33 @@
   </si>
   <si>
     <t>Spend x (1-8) to gain x/2 COIN (rounded up).</t>
+  </si>
+  <si>
+    <t>onTurnStart</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>onResolve</t>
+  </si>
+  <si>
+    <t>onDraw</t>
+  </si>
+  <si>
+    <t>onPurchase</t>
+  </si>
+  <si>
+    <t>onShuffle</t>
+  </si>
+  <si>
+    <t>onBuild</t>
+  </si>
+  <si>
+    <t>onClient</t>
+  </si>
+  <si>
+    <t>onFinish</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1189,11 +1216,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,6 +1244,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1488,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
-  <dimension ref="A1:J169"/>
+  <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1502,13 +1539,13 @@
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.42578125" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -1527,20 +1564,23 @@
       <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1553,20 +1593,21 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1579,20 +1620,21 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
+      <c r="G3" s="2"/>
       <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1605,20 +1647,21 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>1</v>
-      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1631,20 +1674,21 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1657,20 +1701,21 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1683,20 +1728,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1713,20 +1759,21 @@
         <v>54</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1739,20 +1786,21 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>3</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2">
+        <v>3</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1769,20 +1817,21 @@
         <v>54</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="2">
+        <v>3</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1799,20 +1848,21 @@
         <v>54</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>3</v>
-      </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2">
+        <v>3</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1829,20 +1879,21 @@
         <v>54</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
         <v>5</v>
       </c>
-      <c r="H12" s="2">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1859,20 +1910,21 @@
         <v>54</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1889,20 +1941,21 @@
         <v>54</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1917,20 +1970,21 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
         <v>2</v>
       </c>
-      <c r="H15" s="2">
-        <v>3</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1943,20 +1997,21 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="2">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1971,20 +2026,21 @@
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
         <v>4</v>
       </c>
-      <c r="H17" s="2">
-        <v>3</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1999,20 +2055,21 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
         <v>5</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2025,20 +2082,21 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
         <v>5</v>
       </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2055,20 +2113,21 @@
         <v>54</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>1</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2085,20 +2144,21 @@
         <v>54</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
         <v>2</v>
       </c>
-      <c r="H21" s="2">
-        <v>3</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="2">
+        <v>3</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2115,20 +2175,21 @@
         <v>54</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="2">
+        <v>3</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2145,20 +2206,21 @@
         <v>54</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="2">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
         <v>4</v>
       </c>
-      <c r="H23" s="2">
-        <v>3</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="2">
+        <v>3</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2175,20 +2237,21 @@
         <v>54</v>
       </c>
       <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
         <v>5</v>
       </c>
-      <c r="H24" s="2">
-        <v>1</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2203,20 +2266,21 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
         <v>5</v>
       </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2229,20 +2293,21 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>1</v>
-      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="2">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2">
         <v>0</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2255,20 +2320,21 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2">
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
         <v>2</v>
       </c>
-      <c r="H27" s="2">
-        <v>3</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="2">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2281,20 +2347,21 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
+      <c r="G28" s="2"/>
       <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2311,20 +2378,21 @@
         <v>54</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="2">
+      <c r="G29" s="2"/>
+      <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="H29" s="2">
-        <v>3</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="I29" s="2">
+        <v>3</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2337,20 +2405,21 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2">
+      <c r="G30" s="2"/>
+      <c r="H30" s="2">
         <v>5</v>
       </c>
-      <c r="H30" s="2">
-        <v>1</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -2363,20 +2432,21 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2">
         <v>5</v>
       </c>
-      <c r="H31" s="2">
-        <v>1</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="I31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -2391,20 +2461,21 @@
       <c r="F32" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -2421,20 +2492,21 @@
         <v>54</v>
       </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2">
+      <c r="G33" s="2"/>
+      <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="H33" s="2">
-        <v>3</v>
-      </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="2">
+        <v>3</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -2451,20 +2523,21 @@
         <v>54</v>
       </c>
       <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>3</v>
-      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2">
         <v>3</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="I34" s="2">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -2481,20 +2554,21 @@
         <v>54</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="2">
+      <c r="G35" s="2"/>
+      <c r="H35" s="2">
         <v>4</v>
       </c>
-      <c r="H35" s="2">
-        <v>3</v>
-      </c>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="2">
+        <v>3</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -2511,20 +2585,21 @@
         <v>54</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="2">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2">
         <v>5</v>
       </c>
-      <c r="H36" s="2">
-        <v>1</v>
-      </c>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -2541,20 +2616,21 @@
         <v>54</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="2">
+      <c r="G37" s="2"/>
+      <c r="H37" s="2">
         <v>5</v>
       </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2" t="s">
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -2567,20 +2643,21 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>1</v>
-      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -2593,20 +2670,21 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="2">
+      <c r="G39" s="2"/>
+      <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="H39" s="2">
-        <v>3</v>
-      </c>
-      <c r="I39" s="2" t="s">
+      <c r="I39" s="2">
+        <v>3</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -2621,20 +2699,21 @@
       <c r="F40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>3</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="I40" s="2">
+        <v>3</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -2651,20 +2730,21 @@
         <v>54</v>
       </c>
       <c r="F41" s="2"/>
-      <c r="G41" s="2">
+      <c r="G41" s="2"/>
+      <c r="H41" s="2">
         <v>4</v>
       </c>
-      <c r="H41" s="2">
-        <v>3</v>
-      </c>
-      <c r="I41" s="2" t="s">
+      <c r="I41" s="2">
+        <v>3</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -2677,20 +2757,21 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="2">
+      <c r="G42" s="2"/>
+      <c r="H42" s="2">
         <v>5</v>
       </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -2703,20 +2784,21 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2">
+      <c r="G43" s="8"/>
+      <c r="H43" s="2">
         <v>5</v>
       </c>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-      <c r="I43" s="2" t="s">
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2733,20 +2815,21 @@
         <v>54</v>
       </c>
       <c r="F44" s="1"/>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
         <v>0</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="J44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -2761,20 +2844,21 @@
       <c r="F45" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="2"/>
+      <c r="H45" s="2">
         <v>2</v>
       </c>
-      <c r="H45" s="2">
-        <v>3</v>
-      </c>
-      <c r="I45" s="2" t="s">
+      <c r="I45" s="2">
+        <v>3</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -2791,20 +2875,21 @@
         <v>54</v>
       </c>
       <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>3</v>
-      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2">
         <v>3</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="I46" s="2">
+        <v>3</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -2821,20 +2906,21 @@
         <v>54</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="2">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2">
         <v>4</v>
       </c>
-      <c r="H47" s="2">
-        <v>3</v>
-      </c>
-      <c r="I47" s="2" t="s">
+      <c r="I47" s="2">
+        <v>3</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -2851,20 +2937,21 @@
         <v>54</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="2">
+      <c r="G48" s="2"/>
+      <c r="H48" s="2">
         <v>5</v>
       </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2" t="s">
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -2877,20 +2964,21 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="2">
+      <c r="G49" s="2"/>
+      <c r="H49" s="2">
         <v>5</v>
       </c>
-      <c r="H49" s="2">
-        <v>1</v>
-      </c>
-      <c r="I49" s="2" t="s">
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J49" s="2">
+      <c r="K49" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -2907,20 +2995,23 @@
         <v>54</v>
       </c>
       <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>1</v>
+      <c r="G50" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="H50" s="2">
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2935,20 +3026,23 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="2">
+      <c r="G51" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="2">
-        <v>3</v>
-      </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2">
+        <v>3</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -2965,20 +3059,23 @@
         <v>54</v>
       </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>3</v>
+      <c r="G52" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="H52" s="2">
         <v>3</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -2995,20 +3092,23 @@
         <v>54</v>
       </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2">
+      <c r="G53" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H53" s="2">
         <v>4</v>
       </c>
-      <c r="H53" s="2">
-        <v>3</v>
-      </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2">
+        <v>3</v>
+      </c>
+      <c r="J53" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -3025,20 +3125,23 @@
         <v>54</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="2">
+      <c r="G54" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H54" s="2">
         <v>5</v>
       </c>
-      <c r="H54" s="2">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2">
+        <v>1</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -3055,20 +3158,23 @@
         <v>54</v>
       </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2">
+      <c r="G55" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H55" s="2">
         <v>5</v>
       </c>
-      <c r="H55" s="2">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3" t="s">
+      <c r="I55" s="2">
+        <v>1</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>54</v>
       </c>
@@ -3085,20 +3191,20 @@
         <v>54</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="2">
-        <v>1</v>
-      </c>
       <c r="H56" s="2">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2">
         <v>0</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>55</v>
       </c>
@@ -3115,20 +3221,23 @@
         <v>54</v>
       </c>
       <c r="F57" s="2"/>
-      <c r="G57" s="2">
+      <c r="G57" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H57" s="2">
         <v>2</v>
       </c>
-      <c r="H57" s="2">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="2">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>56</v>
       </c>
@@ -3145,20 +3254,21 @@
         <v>54</v>
       </c>
       <c r="F58" s="2"/>
-      <c r="G58" s="2">
-        <v>3</v>
-      </c>
+      <c r="G58" s="2"/>
       <c r="H58" s="2">
         <v>3</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="I58" s="2">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>57</v>
       </c>
@@ -3175,20 +3285,21 @@
         <v>54</v>
       </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2">
+      <c r="G59" s="2"/>
+      <c r="H59" s="2">
         <v>4</v>
       </c>
-      <c r="H59" s="2">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
+      <c r="I59" s="2">
+        <v>3</v>
+      </c>
+      <c r="J59" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>58</v>
       </c>
@@ -3205,20 +3316,21 @@
         <v>54</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2">
         <v>5</v>
       </c>
-      <c r="H60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="2">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
@@ -3235,20 +3347,23 @@
         <v>54</v>
       </c>
       <c r="F61" s="2"/>
-      <c r="G61" s="2">
+      <c r="G61" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H61" s="2">
         <v>5</v>
       </c>
-      <c r="H61" s="2">
-        <v>1</v>
-      </c>
-      <c r="I61" s="3" t="s">
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>60</v>
       </c>
@@ -3265,20 +3380,23 @@
         <v>54</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="2">
-        <v>1</v>
+      <c r="G62" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="H62" s="2">
+        <v>1</v>
+      </c>
+      <c r="I62" s="2">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>61</v>
       </c>
@@ -3295,20 +3413,21 @@
         <v>54</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2">
         <v>2</v>
       </c>
-      <c r="H63" s="2">
-        <v>3</v>
-      </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2">
+        <v>3</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J63" s="3">
+      <c r="K63" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>62</v>
       </c>
@@ -3325,20 +3444,21 @@
         <v>54</v>
       </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2">
-        <v>3</v>
-      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="2">
         <v>3</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" s="2">
+        <v>3</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J64" s="3">
+      <c r="K64" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>63</v>
       </c>
@@ -3355,20 +3475,21 @@
         <v>54</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2">
         <v>4</v>
       </c>
-      <c r="H65" s="2">
-        <v>3</v>
-      </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" s="2">
+        <v>3</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J65" s="3">
+      <c r="K65" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -3385,20 +3506,21 @@
         <v>54</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2">
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
         <v>5</v>
       </c>
-      <c r="H66" s="2">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="2">
+        <v>1</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>65</v>
       </c>
@@ -3415,20 +3537,21 @@
         <v>54</v>
       </c>
       <c r="F67" s="2"/>
-      <c r="G67" s="2">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
         <v>5</v>
       </c>
-      <c r="H67" s="2">
-        <v>1</v>
-      </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J67" s="3">
+      <c r="K67" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>66</v>
       </c>
@@ -3445,20 +3568,21 @@
         <v>54</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="2">
-        <v>1</v>
-      </c>
+      <c r="G68" s="2"/>
       <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="2">
         <v>0</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J68" s="3">
+      <c r="K68" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -3475,20 +3599,21 @@
         <v>54</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="2">
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
         <v>2</v>
       </c>
-      <c r="H69" s="2">
-        <v>3</v>
-      </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="2">
+        <v>3</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J69" s="3">
+      <c r="K69" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>68</v>
       </c>
@@ -3505,20 +3630,21 @@
         <v>54</v>
       </c>
       <c r="F70" s="2"/>
-      <c r="G70" s="2">
-        <v>3</v>
-      </c>
+      <c r="G70" s="2"/>
       <c r="H70" s="2">
         <v>3</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="2">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J70" s="3">
+      <c r="K70" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>69</v>
       </c>
@@ -3535,20 +3661,21 @@
         <v>54</v>
       </c>
       <c r="F71" s="2"/>
-      <c r="G71" s="2">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2">
         <v>4</v>
       </c>
-      <c r="H71" s="2">
-        <v>3</v>
-      </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J71" s="3">
+      <c r="K71" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>70</v>
       </c>
@@ -3565,20 +3692,21 @@
         <v>54</v>
       </c>
       <c r="F72" s="2"/>
-      <c r="G72" s="2">
+      <c r="G72" s="2"/>
+      <c r="H72" s="2">
         <v>5</v>
       </c>
-      <c r="H72" s="2">
-        <v>1</v>
-      </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>71</v>
       </c>
@@ -3591,20 +3719,21 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="2">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2">
         <v>5</v>
       </c>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J73" s="3">
+      <c r="K73" s="3">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>72</v>
       </c>
@@ -3619,20 +3748,21 @@
       <c r="F74" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G74" s="2">
-        <v>1</v>
-      </c>
+      <c r="G74" s="2"/>
       <c r="H74" s="2">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J74" s="3">
+      <c r="K74" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>73</v>
       </c>
@@ -3645,20 +3775,23 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="2">
+      <c r="G75" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H75" s="2">
         <v>2</v>
       </c>
-      <c r="H75" s="2">
-        <v>3</v>
-      </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="2">
+        <v>3</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J75" s="3">
+      <c r="K75" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>74</v>
       </c>
@@ -3671,20 +3804,23 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2">
-        <v>3</v>
+      <c r="G76" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="H76" s="2">
         <v>3</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="2">
+        <v>3</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>75</v>
       </c>
@@ -3697,20 +3833,23 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="2">
+      <c r="G77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H77" s="2">
         <v>4</v>
       </c>
-      <c r="H77" s="2">
-        <v>3</v>
-      </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="2">
+        <v>3</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J77" s="3">
+      <c r="K77" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>76</v>
       </c>
@@ -3723,20 +3862,23 @@
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="2">
+      <c r="G78" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H78" s="2">
         <v>5</v>
       </c>
-      <c r="H78" s="2">
-        <v>1</v>
-      </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="2">
+        <v>1</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J78" s="3">
+      <c r="K78" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>77</v>
       </c>
@@ -3749,20 +3891,23 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="2">
+      <c r="G79" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H79" s="2">
         <v>5</v>
       </c>
-      <c r="H79" s="2">
-        <v>1</v>
-      </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="2">
+        <v>1</v>
+      </c>
+      <c r="J79" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="J79" s="3">
+      <c r="K79" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3779,20 +3924,23 @@
         <v>54</v>
       </c>
       <c r="F80" s="1"/>
-      <c r="G80" s="1">
-        <v>1</v>
+      <c r="G80" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="H80" s="1">
+        <v>1</v>
+      </c>
+      <c r="I80" s="1">
         <v>0</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="J80" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="J80" s="7">
+      <c r="K80" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
@@ -3807,20 +3955,23 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="2">
+      <c r="G81" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H81" s="2">
         <v>2</v>
       </c>
-      <c r="H81" s="2">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="2">
+        <v>3</v>
+      </c>
+      <c r="J81" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
@@ -3837,20 +3988,23 @@
         <v>54</v>
       </c>
       <c r="F82" s="2"/>
-      <c r="G82" s="2">
-        <v>3</v>
+      <c r="G82" s="2" t="s">
+        <v>371</v>
       </c>
       <c r="H82" s="2">
         <v>3</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="2">
+        <v>3</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J82" s="3">
+      <c r="K82" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
@@ -3867,20 +4021,23 @@
         <v>54</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="2">
+      <c r="G83" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83" s="2">
         <v>4</v>
       </c>
-      <c r="H83" s="2">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
+      <c r="I83" s="2">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
@@ -3897,20 +4054,23 @@
         <v>54</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="2">
+      <c r="G84" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H84" s="2">
         <v>5</v>
       </c>
-      <c r="H84" s="2">
-        <v>1</v>
-      </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="2">
+        <v>1</v>
+      </c>
+      <c r="J84" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J84" s="3">
+      <c r="K84" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
@@ -3927,20 +4087,23 @@
         <v>54</v>
       </c>
       <c r="F85" s="2"/>
-      <c r="G85" s="2">
+      <c r="G85" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="H85" s="2">
         <v>5</v>
       </c>
-      <c r="H85" s="2">
-        <v>1</v>
-      </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="J85" s="3">
+      <c r="K85" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3953,20 +4116,21 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="1">
-        <v>1</v>
-      </c>
+      <c r="G86" s="2"/>
       <c r="H86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="1">
         <v>0</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="J86" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
@@ -3981,20 +4145,21 @@
       <c r="F87" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="2"/>
+      <c r="H87" s="2">
         <v>2</v>
       </c>
-      <c r="H87" s="2">
-        <v>3</v>
-      </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+      <c r="J87" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J87" s="3">
+      <c r="K87" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
@@ -4011,20 +4176,21 @@
         <v>54</v>
       </c>
       <c r="F88" s="2"/>
-      <c r="G88" s="2">
-        <v>3</v>
-      </c>
+      <c r="G88" s="2"/>
       <c r="H88" s="2">
         <v>3</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" s="2">
+        <v>3</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J88" s="3">
+      <c r="K88" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
@@ -4041,20 +4207,21 @@
         <v>54</v>
       </c>
       <c r="F89" s="2"/>
-      <c r="G89" s="2">
+      <c r="G89" s="2"/>
+      <c r="H89" s="2">
         <v>4</v>
       </c>
-      <c r="H89" s="2">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" s="2">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>88</v>
       </c>
@@ -4071,20 +4238,21 @@
         <v>54</v>
       </c>
       <c r="F90" s="2"/>
-      <c r="G90" s="2">
+      <c r="G90" s="2"/>
+      <c r="H90" s="2">
         <v>5</v>
       </c>
-      <c r="H90" s="2">
-        <v>1</v>
-      </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" s="2">
+        <v>1</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J90" s="3">
+      <c r="K90" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>89</v>
       </c>
@@ -4099,20 +4267,21 @@
       <c r="F91" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
         <v>5</v>
       </c>
-      <c r="H91" s="2">
-        <v>1</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" s="2">
+        <v>1</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>90</v>
       </c>
@@ -4129,20 +4298,21 @@
         <v>54</v>
       </c>
       <c r="F92" s="2"/>
-      <c r="G92" s="2">
-        <v>1</v>
-      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2">
+        <v>1</v>
+      </c>
+      <c r="I92" s="2">
         <v>0</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J92" s="3">
+      <c r="K92" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>91</v>
       </c>
@@ -4159,20 +4329,21 @@
         <v>54</v>
       </c>
       <c r="F93" s="2"/>
-      <c r="G93" s="2">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2">
         <v>2</v>
       </c>
-      <c r="H93" s="2">
-        <v>3</v>
-      </c>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J93" s="3">
+      <c r="K93" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
@@ -4187,20 +4358,21 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2">
-        <v>3</v>
-      </c>
+      <c r="G94" s="2"/>
       <c r="H94" s="2">
         <v>3</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>93</v>
       </c>
@@ -4217,20 +4389,21 @@
         <v>54</v>
       </c>
       <c r="F95" s="2"/>
-      <c r="G95" s="2">
+      <c r="G95" s="2"/>
+      <c r="H95" s="2">
         <v>4</v>
       </c>
-      <c r="H95" s="2">
-        <v>3</v>
-      </c>
-      <c r="I95" s="3" t="s">
+      <c r="I95" s="2">
+        <v>3</v>
+      </c>
+      <c r="J95" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J95" s="3">
+      <c r="K95" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>94</v>
       </c>
@@ -4247,20 +4420,21 @@
         <v>54</v>
       </c>
       <c r="F96" s="2"/>
-      <c r="G96" s="2">
+      <c r="G96" s="2"/>
+      <c r="H96" s="2">
         <v>5</v>
       </c>
-      <c r="H96" s="2">
-        <v>1</v>
-      </c>
-      <c r="I96" s="3" t="s">
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>95</v>
       </c>
@@ -4273,20 +4447,21 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="2">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2">
         <v>5</v>
       </c>
-      <c r="H97" s="2">
-        <v>1</v>
-      </c>
-      <c r="I97" s="3" t="s">
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="J97" s="3">
+      <c r="K97" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>96</v>
       </c>
@@ -4303,20 +4478,21 @@
         <v>54</v>
       </c>
       <c r="F98" s="2"/>
-      <c r="G98" s="2">
-        <v>1</v>
-      </c>
+      <c r="G98" s="2"/>
       <c r="H98" s="2">
+        <v>1</v>
+      </c>
+      <c r="I98" s="2">
         <v>0</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J98" s="3">
+      <c r="K98" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>97</v>
       </c>
@@ -4329,20 +4505,21 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="2">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2">
         <v>2</v>
       </c>
-      <c r="H99" s="2">
-        <v>3</v>
-      </c>
-      <c r="I99" s="3" t="s">
+      <c r="I99" s="2">
+        <v>3</v>
+      </c>
+      <c r="J99" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J99" s="3">
+      <c r="K99" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>98</v>
       </c>
@@ -4359,20 +4536,21 @@
         <v>54</v>
       </c>
       <c r="F100" s="2"/>
-      <c r="G100" s="2">
-        <v>3</v>
-      </c>
+      <c r="G100" s="2"/>
       <c r="H100" s="2">
         <v>3</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="I100" s="2">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>99</v>
       </c>
@@ -4389,20 +4567,21 @@
         <v>54</v>
       </c>
       <c r="F101" s="2"/>
-      <c r="G101" s="2">
+      <c r="G101" s="2"/>
+      <c r="H101" s="2">
         <v>4</v>
       </c>
-      <c r="H101" s="2">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
+      <c r="I101" s="2">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>100</v>
       </c>
@@ -4419,20 +4598,21 @@
         <v>54</v>
       </c>
       <c r="F102" s="2"/>
-      <c r="G102" s="2">
+      <c r="G102" s="2"/>
+      <c r="H102" s="2">
         <v>5</v>
       </c>
-      <c r="H102" s="2">
-        <v>1</v>
-      </c>
-      <c r="I102" s="3" t="s">
+      <c r="I102" s="2">
+        <v>1</v>
+      </c>
+      <c r="J102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>101</v>
       </c>
@@ -4449,20 +4629,21 @@
         <v>54</v>
       </c>
       <c r="F103" s="2"/>
-      <c r="G103" s="2">
+      <c r="G103" s="2"/>
+      <c r="H103" s="2">
         <v>5</v>
       </c>
-      <c r="H103" s="2">
-        <v>1</v>
-      </c>
-      <c r="I103" s="3" t="s">
+      <c r="I103" s="2">
+        <v>1</v>
+      </c>
+      <c r="J103" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="J103" s="3">
+      <c r="K103" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
@@ -4479,20 +4660,21 @@
         <v>54</v>
       </c>
       <c r="F104" s="2"/>
-      <c r="G104" s="2">
-        <v>1</v>
-      </c>
+      <c r="G104" s="2"/>
       <c r="H104" s="2">
+        <v>1</v>
+      </c>
+      <c r="I104" s="2">
         <v>0</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J104" s="3">
+      <c r="K104" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>103</v>
       </c>
@@ -4507,20 +4689,21 @@
       <c r="F105" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="2"/>
+      <c r="H105" s="2">
         <v>2</v>
       </c>
-      <c r="H105" s="2">
-        <v>3</v>
-      </c>
-      <c r="I105" s="3" t="s">
+      <c r="I105" s="2">
+        <v>3</v>
+      </c>
+      <c r="J105" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J105" s="3">
+      <c r="K105" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>104</v>
       </c>
@@ -4537,20 +4720,21 @@
         <v>54</v>
       </c>
       <c r="F106" s="2"/>
-      <c r="G106" s="2">
-        <v>3</v>
-      </c>
+      <c r="G106" s="2"/>
       <c r="H106" s="2">
         <v>3</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="I106" s="2">
+        <v>3</v>
+      </c>
+      <c r="J106" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J106" s="3">
+      <c r="K106" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>105</v>
       </c>
@@ -4567,20 +4751,21 @@
         <v>54</v>
       </c>
       <c r="F107" s="2"/>
-      <c r="G107" s="2">
+      <c r="G107" s="2"/>
+      <c r="H107" s="2">
         <v>4</v>
       </c>
-      <c r="H107" s="2">
-        <v>3</v>
-      </c>
-      <c r="I107" s="3" t="s">
+      <c r="I107" s="2">
+        <v>3</v>
+      </c>
+      <c r="J107" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J107" s="3">
+      <c r="K107" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>106</v>
       </c>
@@ -4597,20 +4782,21 @@
         <v>54</v>
       </c>
       <c r="F108" s="2"/>
-      <c r="G108" s="2">
+      <c r="G108" s="2"/>
+      <c r="H108" s="2">
         <v>5</v>
       </c>
-      <c r="H108" s="2">
-        <v>1</v>
-      </c>
-      <c r="I108" s="3" t="s">
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J108" s="3">
+      <c r="K108" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>107</v>
       </c>
@@ -4627,20 +4813,21 @@
         <v>54</v>
       </c>
       <c r="F109" s="2"/>
-      <c r="G109" s="2">
+      <c r="G109" s="2"/>
+      <c r="H109" s="2">
         <v>5</v>
       </c>
-      <c r="H109" s="2">
-        <v>1</v>
-      </c>
-      <c r="I109" s="3" t="s">
+      <c r="I109" s="2">
+        <v>1</v>
+      </c>
+      <c r="J109" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="J109" s="3">
+      <c r="K109" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>108</v>
       </c>
@@ -4657,20 +4844,21 @@
         <v>54</v>
       </c>
       <c r="F110" s="2"/>
-      <c r="G110" s="2">
-        <v>1</v>
-      </c>
+      <c r="G110" s="2"/>
       <c r="H110" s="2">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2">
         <v>0</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J110" s="3">
+      <c r="K110" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>109</v>
       </c>
@@ -4685,20 +4873,21 @@
       <c r="F111" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="2"/>
+      <c r="H111" s="2">
         <v>2</v>
       </c>
-      <c r="H111" s="2">
-        <v>3</v>
-      </c>
-      <c r="I111" s="3" t="s">
+      <c r="I111" s="2">
+        <v>3</v>
+      </c>
+      <c r="J111" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J111" s="3">
+      <c r="K111" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
@@ -4715,20 +4904,21 @@
         <v>54</v>
       </c>
       <c r="F112" s="2"/>
-      <c r="G112" s="2">
-        <v>3</v>
-      </c>
+      <c r="G112" s="2"/>
       <c r="H112" s="2">
         <v>3</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="I112" s="2">
+        <v>3</v>
+      </c>
+      <c r="J112" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J112" s="3">
+      <c r="K112" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>111</v>
       </c>
@@ -4745,20 +4935,21 @@
         <v>54</v>
       </c>
       <c r="F113" s="2"/>
-      <c r="G113" s="2">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2">
         <v>4</v>
       </c>
-      <c r="H113" s="2">
-        <v>3</v>
-      </c>
-      <c r="I113" s="3" t="s">
+      <c r="I113" s="2">
+        <v>3</v>
+      </c>
+      <c r="J113" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J113" s="3">
+      <c r="K113" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>112</v>
       </c>
@@ -4775,20 +4966,21 @@
         <v>54</v>
       </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="2">
+      <c r="G114" s="2"/>
+      <c r="H114" s="2">
         <v>5</v>
       </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="3" t="s">
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J114" s="3">
+      <c r="K114" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>113</v>
       </c>
@@ -4803,20 +4995,21 @@
       <c r="F115" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="2"/>
+      <c r="H115" s="2">
         <v>5</v>
       </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="3" t="s">
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="J115" s="3">
+      <c r="K115" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>114</v>
       </c>
@@ -4833,20 +5026,23 @@
         <v>54</v>
       </c>
       <c r="F116" s="2"/>
-      <c r="G116" s="2">
-        <v>1</v>
+      <c r="G116" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
         <v>0</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J116" s="3">
+      <c r="K116" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>115</v>
       </c>
@@ -4859,20 +5055,21 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="2">
+      <c r="G117" s="2"/>
+      <c r="H117" s="2">
         <v>2</v>
       </c>
-      <c r="H117" s="2">
-        <v>3</v>
-      </c>
-      <c r="I117" s="3" t="s">
+      <c r="I117" s="2">
+        <v>3</v>
+      </c>
+      <c r="J117" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J117" s="3">
+      <c r="K117" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>116</v>
       </c>
@@ -4889,20 +5086,23 @@
         <v>54</v>
       </c>
       <c r="F118" s="2"/>
-      <c r="G118" s="2">
-        <v>3</v>
+      <c r="G118" s="2" t="s">
+        <v>367</v>
       </c>
       <c r="H118" s="2">
         <v>3</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="I118" s="2">
+        <v>3</v>
+      </c>
+      <c r="J118" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J118" s="3">
+      <c r="K118" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>117</v>
       </c>
@@ -4919,20 +5119,23 @@
         <v>54</v>
       </c>
       <c r="F119" s="2"/>
-      <c r="G119" s="2">
+      <c r="G119" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H119" s="2">
         <v>4</v>
       </c>
-      <c r="H119" s="2">
-        <v>3</v>
-      </c>
-      <c r="I119" s="3" t="s">
+      <c r="I119" s="2">
+        <v>3</v>
+      </c>
+      <c r="J119" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J119" s="3">
+      <c r="K119" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>118</v>
       </c>
@@ -4949,20 +5152,23 @@
         <v>54</v>
       </c>
       <c r="F120" s="2"/>
-      <c r="G120" s="2">
+      <c r="G120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="H120" s="2">
         <v>5</v>
       </c>
-      <c r="H120" s="2">
-        <v>1</v>
-      </c>
-      <c r="I120" s="3" t="s">
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J120" s="3">
+      <c r="K120" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>119</v>
       </c>
@@ -4977,20 +5183,21 @@
       <c r="F121" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="8"/>
+      <c r="H121" s="2">
         <v>5</v>
       </c>
-      <c r="H121" s="2">
-        <v>1</v>
-      </c>
-      <c r="I121" s="3" t="s">
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="J121" s="3">
+      <c r="K121" s="3">
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5007,20 +5214,21 @@
         <v>54</v>
       </c>
       <c r="F122" s="1"/>
-      <c r="G122" s="1">
-        <v>1</v>
-      </c>
+      <c r="G122" s="2"/>
       <c r="H122" s="1">
+        <v>1</v>
+      </c>
+      <c r="I122" s="1">
         <v>0</v>
       </c>
-      <c r="I122" s="7" t="s">
+      <c r="J122" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="J122" s="7">
+      <c r="K122" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>121</v>
       </c>
@@ -5035,20 +5243,21 @@
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
-      <c r="G123" s="2">
+      <c r="G123" s="2"/>
+      <c r="H123" s="2">
         <v>2</v>
       </c>
-      <c r="H123" s="2">
-        <v>3</v>
-      </c>
-      <c r="I123" s="3" t="s">
+      <c r="I123" s="2">
+        <v>3</v>
+      </c>
+      <c r="J123" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J123" s="3">
+      <c r="K123" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
@@ -5065,20 +5274,21 @@
         <v>54</v>
       </c>
       <c r="F124" s="2"/>
-      <c r="G124" s="2">
-        <v>3</v>
-      </c>
+      <c r="G124" s="2"/>
       <c r="H124" s="2">
         <v>3</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="I124" s="2">
+        <v>3</v>
+      </c>
+      <c r="J124" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J124" s="3">
+      <c r="K124" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>123</v>
       </c>
@@ -5091,20 +5301,21 @@
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
-      <c r="G125" s="2">
+      <c r="G125" s="2"/>
+      <c r="H125" s="2">
         <v>4</v>
       </c>
-      <c r="H125" s="2">
-        <v>3</v>
-      </c>
-      <c r="I125" s="3" t="s">
+      <c r="I125" s="2">
+        <v>3</v>
+      </c>
+      <c r="J125" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J125" s="3">
+      <c r="K125" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>124</v>
       </c>
@@ -5121,20 +5332,21 @@
         <v>54</v>
       </c>
       <c r="F126" s="2"/>
-      <c r="G126" s="2">
+      <c r="G126" s="2"/>
+      <c r="H126" s="2">
         <v>5</v>
       </c>
-      <c r="H126" s="2">
-        <v>1</v>
-      </c>
-      <c r="I126" s="3" t="s">
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J126" s="3">
+      <c r="K126" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>125</v>
       </c>
@@ -5151,20 +5363,21 @@
         <v>54</v>
       </c>
       <c r="F127" s="2"/>
-      <c r="G127" s="2">
+      <c r="G127" s="2"/>
+      <c r="H127" s="2">
         <v>5</v>
       </c>
-      <c r="H127" s="2">
-        <v>1</v>
-      </c>
-      <c r="I127" s="3" t="s">
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="J127" s="3">
+      <c r="K127" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>126</v>
       </c>
@@ -5181,20 +5394,21 @@
         <v>54</v>
       </c>
       <c r="F128" s="2"/>
-      <c r="G128" s="2">
-        <v>1</v>
-      </c>
+      <c r="G128" s="2"/>
       <c r="H128" s="2">
+        <v>1</v>
+      </c>
+      <c r="I128" s="2">
         <v>0</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J128" s="3">
+      <c r="K128" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>127</v>
       </c>
@@ -5211,20 +5425,21 @@
         <v>54</v>
       </c>
       <c r="F129" s="2"/>
-      <c r="G129" s="2">
+      <c r="G129" s="2"/>
+      <c r="H129" s="2">
         <v>2</v>
       </c>
-      <c r="H129" s="2">
-        <v>3</v>
-      </c>
-      <c r="I129" s="3" t="s">
+      <c r="I129" s="2">
+        <v>3</v>
+      </c>
+      <c r="J129" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J129" s="3">
+      <c r="K129" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>128</v>
       </c>
@@ -5241,20 +5456,21 @@
         <v>54</v>
       </c>
       <c r="F130" s="2"/>
-      <c r="G130" s="2">
-        <v>3</v>
-      </c>
+      <c r="G130" s="2"/>
       <c r="H130" s="2">
         <v>3</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="I130" s="2">
+        <v>3</v>
+      </c>
+      <c r="J130" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J130" s="3">
+      <c r="K130" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>129</v>
       </c>
@@ -5271,20 +5487,21 @@
         <v>54</v>
       </c>
       <c r="F131" s="2"/>
-      <c r="G131" s="2">
+      <c r="G131" s="2"/>
+      <c r="H131" s="2">
         <v>4</v>
       </c>
-      <c r="H131" s="2">
-        <v>3</v>
-      </c>
-      <c r="I131" s="3" t="s">
+      <c r="I131" s="2">
+        <v>3</v>
+      </c>
+      <c r="J131" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J131" s="3">
+      <c r="K131" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>130</v>
       </c>
@@ -5301,20 +5518,21 @@
         <v>54</v>
       </c>
       <c r="F132" s="2"/>
-      <c r="G132" s="2">
+      <c r="G132" s="2"/>
+      <c r="H132" s="2">
         <v>5</v>
       </c>
-      <c r="H132" s="2">
-        <v>1</v>
-      </c>
-      <c r="I132" s="3" t="s">
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J132" s="3">
+      <c r="K132" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>131</v>
       </c>
@@ -5331,20 +5549,21 @@
         <v>54</v>
       </c>
       <c r="F133" s="2"/>
-      <c r="G133" s="2">
+      <c r="G133" s="2"/>
+      <c r="H133" s="2">
         <v>5</v>
       </c>
-      <c r="H133" s="2">
-        <v>1</v>
-      </c>
-      <c r="I133" s="3" t="s">
+      <c r="I133" s="2">
+        <v>1</v>
+      </c>
+      <c r="J133" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="J133" s="3">
+      <c r="K133" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>132</v>
       </c>
@@ -5361,20 +5580,23 @@
         <v>54</v>
       </c>
       <c r="F134" s="2"/>
-      <c r="G134" s="2">
-        <v>1</v>
+      <c r="G134" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="H134" s="2">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2">
         <v>0</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J134" s="3">
+      <c r="K134" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>133</v>
       </c>
@@ -5389,20 +5611,23 @@
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
-      <c r="G135" s="2">
+      <c r="G135" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H135" s="2">
         <v>2</v>
       </c>
-      <c r="H135" s="2">
-        <v>3</v>
-      </c>
-      <c r="I135" s="3" t="s">
+      <c r="I135" s="2">
+        <v>3</v>
+      </c>
+      <c r="J135" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J135" s="3">
+      <c r="K135" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>134</v>
       </c>
@@ -5419,20 +5644,23 @@
         <v>54</v>
       </c>
       <c r="F136" s="2"/>
-      <c r="G136" s="2">
-        <v>3</v>
+      <c r="G136" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="H136" s="2">
         <v>3</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="I136" s="2">
+        <v>3</v>
+      </c>
+      <c r="J136" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J136" s="3">
+      <c r="K136" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>135</v>
       </c>
@@ -5449,20 +5677,23 @@
         <v>54</v>
       </c>
       <c r="F137" s="2"/>
-      <c r="G137" s="2">
+      <c r="G137" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H137" s="2">
         <v>4</v>
       </c>
-      <c r="H137" s="2">
-        <v>3</v>
-      </c>
-      <c r="I137" s="3" t="s">
+      <c r="I137" s="2">
+        <v>3</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J137" s="3">
+      <c r="K137" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>136</v>
       </c>
@@ -5479,20 +5710,23 @@
         <v>54</v>
       </c>
       <c r="F138" s="2"/>
-      <c r="G138" s="2">
+      <c r="G138" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H138" s="2">
         <v>5</v>
       </c>
-      <c r="H138" s="2">
-        <v>1</v>
-      </c>
-      <c r="I138" s="3" t="s">
+      <c r="I138" s="2">
+        <v>1</v>
+      </c>
+      <c r="J138" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J138" s="3">
+      <c r="K138" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>137</v>
       </c>
@@ -5509,20 +5743,23 @@
         <v>54</v>
       </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="2">
+      <c r="G139" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H139" s="2">
         <v>5</v>
       </c>
-      <c r="H139" s="2">
-        <v>1</v>
-      </c>
-      <c r="I139" s="3" t="s">
+      <c r="I139" s="2">
+        <v>1</v>
+      </c>
+      <c r="J139" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="J139" s="3">
+      <c r="K139" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>138</v>
       </c>
@@ -5539,20 +5776,21 @@
         <v>54</v>
       </c>
       <c r="F140" s="2"/>
-      <c r="G140" s="2">
-        <v>1</v>
-      </c>
+      <c r="G140" s="2"/>
       <c r="H140" s="2">
+        <v>1</v>
+      </c>
+      <c r="I140" s="2">
         <v>0</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J140" s="3">
+      <c r="K140" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>139</v>
       </c>
@@ -5569,20 +5807,21 @@
         <v>54</v>
       </c>
       <c r="F141" s="2"/>
-      <c r="G141" s="2">
+      <c r="G141" s="2"/>
+      <c r="H141" s="2">
         <v>2</v>
       </c>
-      <c r="H141" s="2">
-        <v>3</v>
-      </c>
-      <c r="I141" s="3" t="s">
+      <c r="I141" s="2">
+        <v>3</v>
+      </c>
+      <c r="J141" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J141" s="3">
+      <c r="K141" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>140</v>
       </c>
@@ -5599,20 +5838,21 @@
         <v>54</v>
       </c>
       <c r="F142" s="2"/>
-      <c r="G142" s="2">
-        <v>3</v>
-      </c>
+      <c r="G142" s="2"/>
       <c r="H142" s="2">
         <v>3</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="I142" s="2">
+        <v>3</v>
+      </c>
+      <c r="J142" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J142" s="3">
+      <c r="K142" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>141</v>
       </c>
@@ -5629,20 +5869,21 @@
         <v>54</v>
       </c>
       <c r="F143" s="2"/>
-      <c r="G143" s="2">
+      <c r="G143" s="2"/>
+      <c r="H143" s="2">
         <v>4</v>
       </c>
-      <c r="H143" s="2">
-        <v>3</v>
-      </c>
-      <c r="I143" s="3" t="s">
+      <c r="I143" s="2">
+        <v>3</v>
+      </c>
+      <c r="J143" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J143" s="3">
+      <c r="K143" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>142</v>
       </c>
@@ -5659,20 +5900,21 @@
         <v>54</v>
       </c>
       <c r="F144" s="2"/>
-      <c r="G144" s="2">
+      <c r="G144" s="2"/>
+      <c r="H144" s="2">
         <v>5</v>
       </c>
-      <c r="H144" s="2">
-        <v>1</v>
-      </c>
-      <c r="I144" s="3" t="s">
+      <c r="I144" s="2">
+        <v>1</v>
+      </c>
+      <c r="J144" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J144" s="3">
+      <c r="K144" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>143</v>
       </c>
@@ -5689,20 +5931,21 @@
         <v>54</v>
       </c>
       <c r="F145" s="2"/>
-      <c r="G145" s="2">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2">
         <v>5</v>
       </c>
-      <c r="H145" s="2">
-        <v>1</v>
-      </c>
-      <c r="I145" s="3" t="s">
+      <c r="I145" s="2">
+        <v>1</v>
+      </c>
+      <c r="J145" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="J145" s="3">
+      <c r="K145" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>144</v>
       </c>
@@ -5719,20 +5962,21 @@
         <v>54</v>
       </c>
       <c r="F146" s="2"/>
-      <c r="G146" s="2">
-        <v>1</v>
-      </c>
+      <c r="G146" s="2"/>
       <c r="H146" s="2">
+        <v>1</v>
+      </c>
+      <c r="I146" s="2">
         <v>0</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J146" s="3">
+      <c r="K146" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>145</v>
       </c>
@@ -5747,20 +5991,21 @@
       <c r="F147" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="2"/>
+      <c r="H147" s="2">
         <v>2</v>
       </c>
-      <c r="H147" s="2">
-        <v>3</v>
-      </c>
-      <c r="I147" s="3" t="s">
+      <c r="I147" s="2">
+        <v>3</v>
+      </c>
+      <c r="J147" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J147" s="3">
+      <c r="K147" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>146</v>
       </c>
@@ -5777,20 +6022,21 @@
         <v>54</v>
       </c>
       <c r="F148" s="2"/>
-      <c r="G148" s="2">
-        <v>3</v>
-      </c>
+      <c r="G148" s="2"/>
       <c r="H148" s="2">
         <v>3</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="I148" s="2">
+        <v>3</v>
+      </c>
+      <c r="J148" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J148" s="3">
+      <c r="K148" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>147</v>
       </c>
@@ -5807,20 +6053,21 @@
         <v>54</v>
       </c>
       <c r="F149" s="2"/>
-      <c r="G149" s="2">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2">
         <v>4</v>
       </c>
-      <c r="H149" s="2">
-        <v>3</v>
-      </c>
-      <c r="I149" s="3" t="s">
+      <c r="I149" s="2">
+        <v>3</v>
+      </c>
+      <c r="J149" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J149" s="3">
+      <c r="K149" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>148</v>
       </c>
@@ -5837,20 +6084,21 @@
         <v>54</v>
       </c>
       <c r="F150" s="2"/>
-      <c r="G150" s="2">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2">
         <v>5</v>
       </c>
-      <c r="H150" s="2">
-        <v>1</v>
-      </c>
-      <c r="I150" s="3" t="s">
+      <c r="I150" s="2">
+        <v>1</v>
+      </c>
+      <c r="J150" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J150" s="3">
+      <c r="K150" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>149</v>
       </c>
@@ -5867,20 +6115,21 @@
         <v>54</v>
       </c>
       <c r="F151" s="2"/>
-      <c r="G151" s="2">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2">
         <v>5</v>
       </c>
-      <c r="H151" s="2">
-        <v>1</v>
-      </c>
-      <c r="I151" s="3" t="s">
+      <c r="I151" s="2">
+        <v>1</v>
+      </c>
+      <c r="J151" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="J151" s="3">
+      <c r="K151" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>150</v>
       </c>
@@ -5897,20 +6146,21 @@
         <v>54</v>
       </c>
       <c r="F152" s="2"/>
-      <c r="G152" s="2">
-        <v>1</v>
-      </c>
+      <c r="G152" s="2"/>
       <c r="H152" s="2">
+        <v>1</v>
+      </c>
+      <c r="I152" s="2">
         <v>0</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J152" s="3">
+      <c r="K152" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>151</v>
       </c>
@@ -5927,20 +6177,21 @@
         <v>54</v>
       </c>
       <c r="F153" s="2"/>
-      <c r="G153" s="2">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2">
         <v>2</v>
       </c>
-      <c r="H153" s="2">
-        <v>3</v>
-      </c>
-      <c r="I153" s="3" t="s">
+      <c r="I153" s="2">
+        <v>3</v>
+      </c>
+      <c r="J153" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J153" s="3">
+      <c r="K153" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>152</v>
       </c>
@@ -5957,20 +6208,21 @@
         <v>54</v>
       </c>
       <c r="F154" s="2"/>
-      <c r="G154" s="2">
-        <v>3</v>
-      </c>
+      <c r="G154" s="2"/>
       <c r="H154" s="2">
         <v>3</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="I154" s="2">
+        <v>3</v>
+      </c>
+      <c r="J154" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J154" s="3">
+      <c r="K154" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>153</v>
       </c>
@@ -5987,20 +6239,21 @@
         <v>54</v>
       </c>
       <c r="F155" s="2"/>
-      <c r="G155" s="2">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2">
         <v>4</v>
       </c>
-      <c r="H155" s="2">
-        <v>3</v>
-      </c>
-      <c r="I155" s="3" t="s">
+      <c r="I155" s="2">
+        <v>3</v>
+      </c>
+      <c r="J155" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J155" s="3">
+      <c r="K155" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>154</v>
       </c>
@@ -6017,20 +6270,21 @@
         <v>54</v>
       </c>
       <c r="F156" s="2"/>
-      <c r="G156" s="2">
+      <c r="G156" s="2"/>
+      <c r="H156" s="2">
         <v>5</v>
       </c>
-      <c r="H156" s="2">
-        <v>1</v>
-      </c>
-      <c r="I156" s="3" t="s">
+      <c r="I156" s="2">
+        <v>1</v>
+      </c>
+      <c r="J156" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J156" s="3">
+      <c r="K156" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>155</v>
       </c>
@@ -6047,20 +6301,21 @@
         <v>54</v>
       </c>
       <c r="F157" s="2"/>
-      <c r="G157" s="2">
+      <c r="G157" s="2"/>
+      <c r="H157" s="2">
         <v>5</v>
       </c>
-      <c r="H157" s="2">
-        <v>1</v>
-      </c>
-      <c r="I157" s="3" t="s">
+      <c r="I157" s="2">
+        <v>1</v>
+      </c>
+      <c r="J157" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="J157" s="3">
+      <c r="K157" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>156</v>
       </c>
@@ -6075,20 +6330,21 @@
       <c r="F158" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="2">
-        <v>1</v>
-      </c>
+      <c r="G158" s="2"/>
       <c r="H158" s="2">
+        <v>1</v>
+      </c>
+      <c r="I158" s="2">
         <v>0</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J158" s="3">
+      <c r="K158" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>157</v>
       </c>
@@ -6103,20 +6359,21 @@
       </c>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
-      <c r="G159" s="2">
+      <c r="G159" s="2"/>
+      <c r="H159" s="2">
         <v>2</v>
       </c>
-      <c r="H159" s="2">
-        <v>3</v>
-      </c>
-      <c r="I159" s="3" t="s">
+      <c r="I159" s="2">
+        <v>3</v>
+      </c>
+      <c r="J159" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J159" s="3">
+      <c r="K159" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>158</v>
       </c>
@@ -6133,20 +6390,21 @@
         <v>54</v>
       </c>
       <c r="F160" s="2"/>
-      <c r="G160" s="2">
-        <v>3</v>
-      </c>
+      <c r="G160" s="2"/>
       <c r="H160" s="2">
         <v>3</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="I160" s="2">
+        <v>3</v>
+      </c>
+      <c r="J160" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J160" s="3">
+      <c r="K160" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>159</v>
       </c>
@@ -6163,20 +6421,21 @@
         <v>54</v>
       </c>
       <c r="F161" s="2"/>
-      <c r="G161" s="2">
+      <c r="G161" s="2"/>
+      <c r="H161" s="2">
         <v>4</v>
       </c>
-      <c r="H161" s="2">
-        <v>3</v>
-      </c>
-      <c r="I161" s="3" t="s">
+      <c r="I161" s="2">
+        <v>3</v>
+      </c>
+      <c r="J161" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J161" s="3">
+      <c r="K161" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
@@ -6193,20 +6452,21 @@
         <v>54</v>
       </c>
       <c r="F162" s="2"/>
-      <c r="G162" s="2">
+      <c r="G162" s="2"/>
+      <c r="H162" s="2">
         <v>5</v>
       </c>
-      <c r="H162" s="2">
-        <v>1</v>
-      </c>
-      <c r="I162" s="3" t="s">
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
+      <c r="J162" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J162" s="3">
+      <c r="K162" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>161</v>
       </c>
@@ -6219,20 +6479,21 @@
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
-      <c r="G163" s="2">
+      <c r="G163" s="2"/>
+      <c r="H163" s="2">
         <v>5</v>
       </c>
-      <c r="H163" s="2">
-        <v>1</v>
-      </c>
-      <c r="I163" s="3" t="s">
+      <c r="I163" s="2">
+        <v>1</v>
+      </c>
+      <c r="J163" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="J163" s="3">
+      <c r="K163" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>162</v>
       </c>
@@ -6249,20 +6510,21 @@
         <v>54</v>
       </c>
       <c r="F164" s="2"/>
-      <c r="G164" s="2">
-        <v>1</v>
-      </c>
+      <c r="G164" s="2"/>
       <c r="H164" s="2">
+        <v>1</v>
+      </c>
+      <c r="I164" s="2">
         <v>0</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="J164" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J164" s="3">
+      <c r="K164" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>163</v>
       </c>
@@ -6279,20 +6541,21 @@
         <v>54</v>
       </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="2">
+      <c r="G165" s="2"/>
+      <c r="H165" s="2">
         <v>2</v>
       </c>
-      <c r="H165" s="2">
-        <v>3</v>
-      </c>
-      <c r="I165" s="3" t="s">
+      <c r="I165" s="2">
+        <v>3</v>
+      </c>
+      <c r="J165" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J165" s="3">
+      <c r="K165" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>164</v>
       </c>
@@ -6309,20 +6572,21 @@
         <v>54</v>
       </c>
       <c r="F166" s="2"/>
-      <c r="G166" s="2">
-        <v>3</v>
-      </c>
+      <c r="G166" s="2"/>
       <c r="H166" s="2">
         <v>3</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="I166" s="2">
+        <v>3</v>
+      </c>
+      <c r="J166" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J166" s="3">
+      <c r="K166" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>165</v>
       </c>
@@ -6339,20 +6603,21 @@
         <v>54</v>
       </c>
       <c r="F167" s="2"/>
-      <c r="G167" s="2">
+      <c r="G167" s="2"/>
+      <c r="H167" s="2">
         <v>4</v>
       </c>
-      <c r="H167" s="2">
-        <v>3</v>
-      </c>
-      <c r="I167" s="3" t="s">
+      <c r="I167" s="2">
+        <v>3</v>
+      </c>
+      <c r="J167" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J167" s="3">
+      <c r="K167" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>166</v>
       </c>
@@ -6369,20 +6634,21 @@
         <v>54</v>
       </c>
       <c r="F168" s="2"/>
-      <c r="G168" s="2">
+      <c r="G168" s="2"/>
+      <c r="H168" s="2">
         <v>5</v>
       </c>
-      <c r="H168" s="2">
-        <v>1</v>
-      </c>
-      <c r="I168" s="3" t="s">
+      <c r="I168" s="2">
+        <v>1</v>
+      </c>
+      <c r="J168" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J168" s="3">
+      <c r="K168" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>167</v>
       </c>
@@ -6399,16 +6665,17 @@
         <v>54</v>
       </c>
       <c r="F169" s="2"/>
-      <c r="G169" s="2">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2">
         <v>5</v>
       </c>
-      <c r="H169" s="2">
-        <v>1</v>
-      </c>
-      <c r="I169" s="3" t="s">
+      <c r="I169" s="2">
+        <v>1</v>
+      </c>
+      <c r="J169" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="J169" s="3">
+      <c r="K169" s="3">
         <v>27</v>
       </c>
     </row>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bart-\Documents\BoardGameArenaStudio\dale-of-merchants\misc\genmaterial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B31B90-A8C0-4560-AB9D-BC0A27D34999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197671D7-9562-457D-A21D-ECE342FBD4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6844FDD2-A089-4DA9-BD86-839C4E63D72C}">
   <dimension ref="A1:K169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I139" sqref="I139"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3316,7 +3316,9 @@
         <v>54</v>
       </c>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="H60" s="2">
         <v>5</v>
       </c>
@@ -3380,9 +3382,7 @@
         <v>54</v>
       </c>
       <c r="F62" s="2"/>
-      <c r="G62" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="G62" s="2"/>
       <c r="H62" s="2">
         <v>1</v>
       </c>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="377">
   <si>
     <t>type_id</t>
   </si>
@@ -81,7 +81,7 @@
     <t>Cookies</t>
   </si>
   <si>
-    <t>Hand size +1.</t>
+    <t>At the end of your turn, draw 1 CARD</t>
   </si>
   <si>
     <t>onCleanUp</t>
@@ -114,7 +114,7 @@
     <t>Loyal Partner</t>
   </si>
   <si>
-    <t>Ditch all cards in the market. Fill the market.</t>
+    <t>Toss any CARDS in the market</t>
   </si>
   <si>
     <t>Pandas</t>
@@ -132,10 +132,10 @@
     <t>When purchased, ditch 0-3 junk used in the purchase.</t>
   </si>
   <si>
-    <t>Market Discovery</t>
-  </si>
-  <si>
-    <t>You may ditch the supply's top card. May be used to purchase the bin's top card.</t>
+    <t>Gift Voucher</t>
+  </si>
+  <si>
+    <t>Take 1 CARD from the market. Place this CARD in its place.</t>
   </si>
   <si>
     <t>Special Offer</t>
@@ -162,7 +162,7 @@
     <t>Nuisance</t>
   </si>
   <si>
-    <t>Discard 1 random card from 0-2 other players.</t>
+    <t>Discard 1 random CARD from 1-2 other players.</t>
   </si>
   <si>
     <t>Rotten Food</t>
@@ -186,7 +186,7 @@
     <t>Treasure Hunter</t>
   </si>
   <si>
-    <t>Take another player's discard pile's top card.</t>
+    <t>Take the top CARD of another player's deck or discard.</t>
   </si>
   <si>
     <t>Stashing vendor</t>
@@ -246,7 +246,7 @@
     <t>Whirligig</t>
   </si>
   <si>
-    <t>Discard your hand. Draw as many cards and shuffle them with another player's hand. Randomly give both their original number of cards back.</t>
+    <t>Roll DIE_OCELOT. Swap that many CARDS between the tops of your and another player's decks.</t>
   </si>
   <si>
     <t>Charm</t>
@@ -279,7 +279,7 @@
     <t>Reflection</t>
   </si>
   <si>
-    <t>This is a copy of another player's discard pile's top card.</t>
+    <t>You may discard 1 CARD from another player's deck. Copy the top CARD of their discard</t>
   </si>
   <si>
     <t>Good Old Times</t>
@@ -288,10 +288,10 @@
     <t>You may ditch the supply's top card. This is a copy of the bin's top card.</t>
   </si>
   <si>
-    <t>Gift Voucher</t>
-  </si>
-  <si>
-    <t>Take any card from the market. Place this in its place.</t>
+    <t>Sound Detectors</t>
+  </si>
+  <si>
+    <t>Look at 2 random CARDS from another player. Copy 1 of them.</t>
   </si>
   <si>
     <t>Trendsetting</t>
@@ -429,7 +429,7 @@
     <t>Cunning Neighbour</t>
   </si>
   <si>
-    <t>Look at another player's hand. You may place this card on your deck.</t>
+    <t>Look at another player's hand.</t>
   </si>
   <si>
     <t>Foxes</t>
@@ -438,7 +438,7 @@
     <t>Cheer</t>
   </si>
   <si>
-    <t>All players search their decks for 1 card. All players shuffle their decks.</t>
+    <t>Each player places the top CARD of their discard on their deck.</t>
   </si>
   <si>
     <t>Raffle</t>
@@ -456,19 +456,19 @@
     <t>Tasters</t>
   </si>
   <si>
-    <t>Choose left or right. Starting with you and proceeding to the chosen direction, all players take 1 card from the market.</t>
+    <t>Give 1 CARD from the market to each player.</t>
   </si>
   <si>
     <t>Rumours</t>
   </si>
   <si>
-    <t>All players place the top 2 cards from their discard piles on their decks.</t>
+    <t>Look at the top CARD of each player's deck and give 1 of them to each player.</t>
   </si>
   <si>
     <t>Daring Adventurer</t>
   </si>
   <si>
-    <t>Roll DIE_POLECAT. Ditch the rolled number of cards in the market. Fill the market.</t>
+    <t>Roll DIE_POLECAT. Draw that many CARDS. Discard that many CARDS.</t>
   </si>
   <si>
     <t>Polecats</t>
@@ -681,7 +681,7 @@
     <t>Pompous Professional</t>
   </si>
   <si>
-    <t>Name a set. Draw and show 3 cards. Take 1 card of the named set and shuffle the rest back.</t>
+    <t>Name a set. Discard 3 CARDS and take 1 CARD of the named set from those.</t>
   </si>
   <si>
     <t>Magpies</t>
@@ -690,7 +690,7 @@
     <t>Bribe</t>
   </si>
   <si>
-    <t>When used to purchase, hand size +1 for this turn.</t>
+    <t>When purchased or used to purchase, hand size +1 for this turn.</t>
   </si>
   <si>
     <t>Burglary</t>
@@ -702,13 +702,13 @@
     <t>Grasp</t>
   </si>
   <si>
-    <t>If you guess the value of 1 random card from another player's hand, take it.</t>
+    <t>If you guess the value of 1 random CARD from another player, take it. Otherwise discard it.</t>
   </si>
   <si>
     <t>Periscope</t>
   </si>
   <si>
-    <t>Name a card. Discard 2 cards from another player's deck one by one, taking named cards.</t>
+    <t>Name a set and value. Discard 2 CARDS from another player's deck one by one, taking matching cards.</t>
   </si>
   <si>
     <t>Sudden Nap</t>
@@ -1680,7 +1680,7 @@
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="1"/>
@@ -1835,7 +1835,7 @@
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1919,17 +1919,19 @@
       <c r="A17" s="1">
         <v>15.0</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1">
         <v>4.0</v>
@@ -1937,10 +1939,10 @@
       <c r="I17" s="1">
         <v>3.0</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>2.0</v>
       </c>
     </row>
@@ -2038,7 +2040,7 @@
       <c r="B21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2162,7 +2164,7 @@
       <c r="B25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2417,7 +2419,7 @@
       <c r="B34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -2568,7 +2570,7 @@
       <c r="B39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>87</v>
       </c>
       <c r="D39" s="1"/>
@@ -2621,18 +2623,14 @@
       <c r="A41" s="1">
         <v>39.0</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1">
@@ -3276,7 +3274,7 @@
       <c r="B62" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>137</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3307,7 +3305,7 @@
       <c r="B63" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3400,7 +3398,7 @@
       <c r="B66" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3431,7 +3429,7 @@
       <c r="B67" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="4" t="s">
         <v>148</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3462,7 +3460,7 @@
       <c r="B68" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="4" t="s">
         <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4372,7 +4370,7 @@
       <c r="B98" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="4" t="s">
         <v>221</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -4403,7 +4401,7 @@
       <c r="B99" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" s="4" t="s">
         <v>224</v>
       </c>
       <c r="D99" s="1"/>
@@ -4461,7 +4459,7 @@
       <c r="B101" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="4" t="s">
         <v>228</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -4492,7 +4490,7 @@
       <c r="B102" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="4" t="s">
         <v>230</v>
       </c>
       <c r="D102" s="1" t="s">

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="377">
   <si>
     <t>type_id</t>
   </si>
@@ -3277,13 +3277,11 @@
       <c r="C62" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1">
         <v>1.0</v>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="377">
   <si>
     <t>type_id</t>
   </si>
@@ -4954,8 +4954,12 @@
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
+      <c r="F117" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H117" s="1">
         <v>2.0</v>
       </c>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="377">
   <si>
     <t>type_id</t>
   </si>
@@ -1438,7 +1438,7 @@
     <col customWidth="1" min="4" max="4" width="11.29"/>
     <col customWidth="1" min="5" max="5" width="9.86"/>
     <col customWidth="1" min="6" max="6" width="11.43"/>
-    <col customWidth="1" min="7" max="7" width="9.29"/>
+    <col customWidth="1" min="7" max="7" width="15.14"/>
     <col customWidth="1" min="8" max="8" width="6.43"/>
     <col customWidth="1" min="9" max="9" width="10.57"/>
     <col customWidth="1" min="10" max="10" width="14.71"/>
@@ -5298,7 +5298,9 @@
         <v>18</v>
       </c>
       <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
+      <c r="G128" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="H128" s="1">
         <v>1.0</v>
       </c>

--- a/misc/genmaterial/material.xlsx
+++ b/misc/genmaterial/material.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="eT2MBq0ZNOUdV1q1FgyBvVwhpcl16lWyVGJnSyvx6B4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="yCS/AUqO6tbZVXrRq/kgzoxiBgZysP8LVi48y8yfzAc="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="377">
   <si>
     <t>type_id</t>
   </si>
@@ -5324,13 +5324,11 @@
       <c r="C129" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1">
         <v>2.0</v>
